--- a/ciri_database_testing.xlsx
+++ b/ciri_database_testing.xlsx
@@ -1,104 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Matlab_July\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82BD34E-525A-487D-823B-7076610871B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="8325"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="17">
-  <si>
-    <t>Hue</t>
-  </si>
-  <si>
-    <t>Saturation</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Contrast</t>
-  </si>
-  <si>
-    <t>Correlation</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Homogeneity</t>
-  </si>
-  <si>
-    <t>ShapeFeature1</t>
-  </si>
-  <si>
-    <t>ShapeFeature2</t>
-  </si>
-  <si>
-    <t>SizeFeature1</t>
-  </si>
-  <si>
-    <t>SizeFeature2</t>
-  </si>
-  <si>
-    <t>SizeFeature3</t>
-  </si>
-  <si>
-    <t>SizeFeature4</t>
-  </si>
-  <si>
-    <t>SizeFeature5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="2">
   <si>
     <t>daunjambuair</t>
   </si>
   <si>
     <t>daunjambubiji</t>
   </si>
-  <si>
-    <t>Class</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,14 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,409 +49,74 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F98B3C-A2EB-4FF2-97C5-8E0DEC51B279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P270"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="14.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="9.140625" customWidth="true"/>
     <col min="9" max="9" width="9.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="5.140625" customWidth="true"/>
+    <col min="12" max="12" width="5.140625" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="14" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="5.140625" customWidth="true"/>
     <col min="16" max="16" width="14" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1">
-        <v>0.53504267451550214</v>
+        <v>0.64161503255735186</v>
       </c>
       <c r="B1">
-        <v>0.27298894098349102</v>
+        <v>0.2076746261274823</v>
       </c>
       <c r="C1">
-        <v>0.72813459967412919</v>
+        <v>0.74978363813510862</v>
       </c>
       <c r="D1">
-        <v>0.03232495583748194</v>
+        <v>0.014113939296611533</v>
       </c>
       <c r="E1">
-        <v>0.99740070625420374</v>
+        <v>0.99415196287593333</v>
       </c>
       <c r="F1">
-        <v>0.27536090152374193</v>
+        <v>0.36729087803837568</v>
       </c>
       <c r="G1">
-        <v>0.9893078194422138</v>
+        <v>0.99299120764413029</v>
       </c>
       <c r="H1">
-        <v>348597</v>
+        <v>424939</v>
       </c>
       <c r="I1">
         <v>2974.9159999999997</v>
       </c>
       <c r="J1">
-        <v>0.89196000307226264</v>
+        <v>0.88627458895129574</v>
       </c>
       <c r="K1">
         <v>1040</v>
@@ -542,43 +130,43 @@
       <c r="N1">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>0.54540327760877594</v>
+        <v>0.52538064850913957</v>
       </c>
       <c r="B2">
-        <v>0.26021176471850144</v>
+        <v>0.34651350395008346</v>
       </c>
       <c r="C2">
-        <v>0.7619118668292888</v>
+        <v>0.63912803230235693</v>
       </c>
       <c r="D2">
-        <v>0.017620844708527383</v>
+        <v>0.052772201702264342</v>
       </c>
       <c r="E2">
-        <v>0.99623496250861676</v>
+        <v>0.99644251206968026</v>
       </c>
       <c r="F2">
-        <v>0.38667894343072662</v>
+        <v>0.27362581926348445</v>
       </c>
       <c r="G2">
-        <v>0.99191939671323803</v>
+        <v>0.97982495583748208</v>
       </c>
       <c r="H2">
-        <v>409983</v>
+        <v>286122</v>
       </c>
       <c r="I2">
         <v>2974.9159999999997</v>
       </c>
       <c r="J2">
-        <v>0.88761738902876419</v>
+        <v>0.88067406327015574</v>
       </c>
       <c r="K2">
         <v>1040</v>
@@ -592,1414 +180,1414 @@
       <c r="N2">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <v>0.39834909126081325</v>
+        <v>0.52424768831845214</v>
       </c>
       <c r="B3">
-        <v>0.42930267904683195</v>
+        <v>0.34794136886284821</v>
       </c>
       <c r="C3">
-        <v>0.45101175755565326</v>
+        <v>0.63872672354162863</v>
       </c>
       <c r="D3">
-        <v>0.031839285273879692</v>
+        <v>0.051742412076441299</v>
       </c>
       <c r="E3">
-        <v>0.99720967611723366</v>
+        <v>0.99651636983977787</v>
       </c>
       <c r="F3">
-        <v>0.30243465527730556</v>
+        <v>0.27407737539344723</v>
       </c>
       <c r="G3">
-        <v>0.98408035736306032</v>
+        <v>0.98008160028906366</v>
       </c>
       <c r="H3">
-        <v>1431435</v>
+        <v>285869</v>
       </c>
       <c r="I3">
-        <v>12217.315000000001</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J3">
-        <v>0.98649789102025709</v>
+        <v>0.87907882663711778</v>
       </c>
       <c r="K3">
-        <v>4160</v>
+        <v>1040</v>
       </c>
       <c r="L3">
-        <v>3120</v>
+        <v>480</v>
       </c>
       <c r="M3">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N3">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.25">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
-        <v>0.38988734003802045</v>
+        <v>0.42252167991680722</v>
       </c>
       <c r="B4">
-        <v>0.45716271311131673</v>
+        <v>0.33252814914660872</v>
       </c>
       <c r="C4">
-        <v>0.44845998754890076</v>
+        <v>0.58836726212961687</v>
       </c>
       <c r="D4">
-        <v>0.029599908747872838</v>
+        <v>0.044871125742733248</v>
       </c>
       <c r="E4">
-        <v>0.99746061087991333</v>
+        <v>0.99627233192551834</v>
       </c>
       <c r="F4">
-        <v>0.29729075100559216</v>
+        <v>0.31150390079945778</v>
       </c>
       <c r="G4">
-        <v>0.98520004562606356</v>
+        <v>0.98381647797227145</v>
       </c>
       <c r="H4">
-        <v>1566427</v>
+        <v>211589</v>
       </c>
       <c r="I4">
-        <v>12182.194999999998</v>
+        <v>5061.6009999999997</v>
       </c>
       <c r="J4">
-        <v>0.98359426092977631</v>
+        <v>0.86236385479720923</v>
       </c>
       <c r="K4">
-        <v>4160</v>
+        <v>1040</v>
       </c>
       <c r="L4">
-        <v>3120</v>
+        <v>480</v>
       </c>
       <c r="M4">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N4">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
-        <v>0.36042004910595277</v>
+        <v>0.17230374763246584</v>
       </c>
       <c r="B5">
-        <v>0.52791624173425722</v>
+        <v>0.21529478850778164</v>
       </c>
       <c r="C5">
-        <v>0.40294724890604894</v>
+        <v>0.71051491798673982</v>
       </c>
       <c r="D5">
-        <v>0.033973074456803212</v>
+        <v>0.039160109201862844</v>
       </c>
       <c r="E5">
-        <v>0.99676055727371515</v>
+        <v>0.99498134871809962</v>
       </c>
       <c r="F5">
-        <v>0.3673936465823931</v>
+        <v>0.36628061215489799</v>
       </c>
       <c r="G5">
-        <v>0.98301407934002505</v>
+        <v>0.98463110914833263</v>
       </c>
       <c r="H5">
-        <v>627593</v>
+        <v>220417</v>
       </c>
       <c r="I5">
-        <v>4983.5800000000008</v>
+        <v>5103.7949999999992</v>
       </c>
       <c r="J5">
-        <v>0.92039948742179256</v>
+        <v>0.86339244791889724</v>
       </c>
       <c r="K5">
-        <v>4160</v>
+        <v>1040</v>
       </c>
       <c r="L5">
-        <v>3120</v>
+        <v>480</v>
       </c>
       <c r="M5">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N5">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.25">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
-        <v>0.34357009131836874</v>
+        <v>0.17383785775947683</v>
       </c>
       <c r="B6">
-        <v>0.58757931225957138</v>
+        <v>0.21286190884499617</v>
       </c>
       <c r="C6">
-        <v>0.36227351210617187</v>
+        <v>0.70787818156140403</v>
       </c>
       <c r="D6">
-        <v>0.034719122253187656</v>
+        <v>0.033182110165408708</v>
       </c>
       <c r="E6">
-        <v>0.99542958633075507</v>
+        <v>0.99572533472684022</v>
       </c>
       <c r="F6">
-        <v>0.42879705522823314</v>
+        <v>0.36493959106431528</v>
       </c>
       <c r="G6">
-        <v>0.98264115820323727</v>
+        <v>0.98578385123922696</v>
       </c>
       <c r="H6">
-        <v>511687</v>
+        <v>217658</v>
       </c>
       <c r="I6">
-        <v>4344.317</v>
+        <v>5090.9210000000003</v>
       </c>
       <c r="J6">
-        <v>0.90562880407728907</v>
+        <v>0.87269434492669595</v>
       </c>
       <c r="K6">
-        <v>4160</v>
+        <v>1040</v>
       </c>
       <c r="L6">
-        <v>3120</v>
+        <v>480</v>
       </c>
       <c r="M6">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N6">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.25">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
-        <v>0.34157732329045609</v>
+        <v>0.14566811158500687</v>
       </c>
       <c r="B7">
-        <v>0.60113720089490252</v>
+        <v>0.27332778378256373</v>
       </c>
       <c r="C7">
-        <v>0.37234873744096181</v>
+        <v>0.76242226778569522</v>
       </c>
       <c r="D7">
-        <v>0.031849844008188022</v>
+        <v>0.043985867994218719</v>
       </c>
       <c r="E7">
-        <v>0.99545289492266698</v>
+        <v>0.99259188735115744</v>
       </c>
       <c r="F7">
-        <v>0.41143138497832182</v>
+        <v>0.3021705130299448</v>
       </c>
       <c r="G7">
-        <v>0.98407507799590599</v>
+        <v>0.9807351051870884</v>
       </c>
       <c r="H7">
-        <v>458855</v>
+        <v>221962</v>
       </c>
       <c r="I7">
-        <v>3492.5609999999997</v>
+        <v>5235.6610000000001</v>
       </c>
       <c r="J7">
-        <v>0.87688535109072963</v>
+        <v>0.86394719612533166</v>
       </c>
       <c r="K7">
-        <v>4160</v>
+        <v>1040</v>
       </c>
       <c r="L7">
-        <v>3120</v>
+        <v>480</v>
       </c>
       <c r="M7">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N7">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.25">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
-        <v>0.538389343679606</v>
+        <v>0.6481926085200338</v>
       </c>
       <c r="B8">
-        <v>0.2605091848870757</v>
+        <v>0.20307403426778897</v>
       </c>
       <c r="C8">
-        <v>0.66877099072166446</v>
+        <v>0.75462166918087625</v>
       </c>
       <c r="D8">
-        <v>0.018749449105347083</v>
+        <v>0.013724506182752529</v>
       </c>
       <c r="E8">
-        <v>0.99535371393323768</v>
+        <v>0.99413729885498081</v>
       </c>
       <c r="F8">
-        <v>0.31007826648440701</v>
+        <v>0.37019023284956343</v>
       </c>
       <c r="G8">
-        <v>0.99062661094951554</v>
+        <v>0.99318860071730641</v>
       </c>
       <c r="H8">
-        <v>5625848</v>
+        <v>427788</v>
       </c>
       <c r="I8">
-        <v>20269.144</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J8">
-        <v>0.7277596927333112</v>
+        <v>0.88650163986105868</v>
       </c>
       <c r="K8">
-        <v>3264</v>
+        <v>1040</v>
       </c>
       <c r="L8">
-        <v>2448</v>
+        <v>480</v>
       </c>
       <c r="M8">
-        <v>4080</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N8">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.25">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
-        <v>0.53431609181849749</v>
+        <v>0.64946010143287558</v>
       </c>
       <c r="B9">
-        <v>0.26870135761111746</v>
+        <v>0.20002604048365985</v>
       </c>
       <c r="C9">
-        <v>0.67191494759802195</v>
+        <v>0.7580196314106793</v>
       </c>
       <c r="D9">
-        <v>0.019615856150388231</v>
+        <v>0.012869359242010601</v>
       </c>
       <c r="E9">
-        <v>0.99513925348399057</v>
+        <v>0.99452097887271385</v>
       </c>
       <c r="F9">
-        <v>0.31421322509377964</v>
+        <v>0.37207289793680182</v>
       </c>
       <c r="G9">
-        <v>0.99019524374250467</v>
+        <v>0.99361885070392364</v>
       </c>
       <c r="H9">
-        <v>5724681</v>
+        <v>428875</v>
       </c>
       <c r="I9">
-        <v>20477.116999999998</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J9">
-        <v>0.71541011860070081</v>
+        <v>0.88642103041963827</v>
       </c>
       <c r="K9">
-        <v>3264</v>
+        <v>1040</v>
       </c>
       <c r="L9">
-        <v>2448</v>
+        <v>480</v>
       </c>
       <c r="M9">
-        <v>4080</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N9">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" x14ac:dyDescent="0.25">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
-        <v>0.52208456667684533</v>
+        <v>0.4567849121267521</v>
       </c>
       <c r="B10">
-        <v>0.28215287441958981</v>
+        <v>0.44854039530907736</v>
       </c>
       <c r="C10">
-        <v>0.65733992388039209</v>
+        <v>0.75011144105044614</v>
       </c>
       <c r="D10">
-        <v>0.018925484987619895</v>
+        <v>0.020455275413521764</v>
       </c>
       <c r="E10">
-        <v>0.99571943512059202</v>
+        <v>0.99437034400616675</v>
       </c>
       <c r="F10">
-        <v>0.31224264568298093</v>
+        <v>0.34440273870925142</v>
       </c>
       <c r="G10">
-        <v>0.99053825913283178</v>
+        <v>0.98984412638509722</v>
       </c>
       <c r="H10">
-        <v>5733090</v>
+        <v>263336</v>
       </c>
       <c r="I10">
-        <v>19326.222999999998</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J10">
-        <v>0.70133497111216647</v>
+        <v>0.87336247217739194</v>
       </c>
       <c r="K10">
-        <v>3264</v>
+        <v>1040</v>
       </c>
       <c r="L10">
-        <v>2448</v>
+        <v>480</v>
       </c>
       <c r="M10">
-        <v>4080</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N10">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" x14ac:dyDescent="0.25">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
-        <v>0.512620886929819</v>
+        <v>0.44390132082367206</v>
       </c>
       <c r="B11">
-        <v>0.29509704200092418</v>
+        <v>0.46493249836075662</v>
       </c>
       <c r="C11">
-        <v>0.64948672439055921</v>
+        <v>0.74992467948668862</v>
       </c>
       <c r="D11">
-        <v>0.018387361074384802</v>
+        <v>0.022856110486590652</v>
       </c>
       <c r="E11">
-        <v>0.99609196724076321</v>
+        <v>0.99376701994754346</v>
       </c>
       <c r="F11">
-        <v>0.31390285537201629</v>
+        <v>0.311938689387384</v>
       </c>
       <c r="G11">
-        <v>0.99080682027612843</v>
+        <v>0.98864153417911249</v>
       </c>
       <c r="H11">
-        <v>5751071</v>
+        <v>252212</v>
       </c>
       <c r="I11">
-        <v>21448.784</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J11">
-        <v>0.68362746098559413</v>
+        <v>0.88111472368805011</v>
       </c>
       <c r="K11">
-        <v>3264</v>
+        <v>1040</v>
       </c>
       <c r="L11">
-        <v>2448</v>
+        <v>480</v>
       </c>
       <c r="M11">
-        <v>4080</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N11">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" x14ac:dyDescent="0.25">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
-        <v>0.45712564294410263</v>
+        <v>0.51921835052810994</v>
       </c>
       <c r="B12">
-        <v>0.31157361973770648</v>
+        <v>0.26428628477029958</v>
       </c>
       <c r="C12">
-        <v>0.57455089772760537</v>
+        <v>0.71024670532579171</v>
       </c>
       <c r="D12">
-        <v>0.039390475867511779</v>
+        <v>0.02251865381883926</v>
       </c>
       <c r="E12">
-        <v>0.99443952372717082</v>
+        <v>0.99510325332781036</v>
       </c>
       <c r="F12">
-        <v>0.18280454960452341</v>
+        <v>0.31179645494274344</v>
       </c>
       <c r="G12">
-        <v>0.98030774214697347</v>
+        <v>0.98878138118126901</v>
       </c>
       <c r="H12">
-        <v>8685139</v>
+        <v>528318</v>
       </c>
       <c r="I12">
-        <v>20548.884999999998</v>
+        <v>3524.9399999999996</v>
       </c>
       <c r="J12">
-        <v>0.63018065411175972</v>
+        <v>0.86938890335297536</v>
       </c>
       <c r="K12">
-        <v>4160</v>
+        <v>589</v>
       </c>
       <c r="L12">
-        <v>3120</v>
+        <v>1280</v>
       </c>
       <c r="M12">
-        <v>5200</v>
+        <v>1409.0141943926612</v>
       </c>
       <c r="N12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.25">
+        <v>0.46015624999999999</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
-        <v>0.57661959375420202</v>
+        <v>0.45913547702896362</v>
       </c>
       <c r="B13">
-        <v>0.31255435964652367</v>
+        <v>0.47835703145926184</v>
       </c>
       <c r="C13">
-        <v>0.86648063247014395</v>
+        <v>0.65913117458441117</v>
       </c>
       <c r="D13">
-        <v>0.018793845663265304</v>
+        <v>0.030550208533846653</v>
       </c>
       <c r="E13">
-        <v>0.99628398257968775</v>
+        <v>0.99607229186579971</v>
       </c>
       <c r="F13">
-        <v>0.32534711824793394</v>
+        <v>0.20939024474518736</v>
       </c>
       <c r="G13">
-        <v>0.9911892139668369</v>
+        <v>0.98483735028339203</v>
       </c>
       <c r="H13">
-        <v>573790</v>
+        <v>237922</v>
       </c>
       <c r="I13">
-        <v>3584.5439999999999</v>
+        <v>2974.9159999999997</v>
       </c>
       <c r="J13">
-        <v>0.86289201408779992</v>
+        <v>0.86578361034502493</v>
       </c>
       <c r="K13">
-        <v>1280</v>
+        <v>480</v>
       </c>
       <c r="L13">
-        <v>589</v>
+        <v>1040</v>
       </c>
       <c r="M13">
-        <v>1409.0141943926612</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N13">
-        <v>2.1731748726655349</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.25">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
-        <v>0.43720354123416044</v>
+        <v>0.36799364743184698</v>
       </c>
       <c r="B14">
-        <v>0.34516842596456881</v>
+        <v>0.59110308904807474</v>
       </c>
       <c r="C14">
-        <v>0.54937969257816921</v>
+        <v>0.68729648221529205</v>
       </c>
       <c r="D14">
-        <v>0.037926896564480721</v>
+        <v>0.023343760025665707</v>
       </c>
       <c r="E14">
-        <v>0.99491581471834656</v>
+        <v>0.99645918984911408</v>
       </c>
       <c r="F14">
-        <v>0.18616407152705189</v>
+        <v>0.30064341624246871</v>
       </c>
       <c r="G14">
-        <v>0.98103768209320874</v>
+        <v>0.98843890359319875</v>
       </c>
       <c r="H14">
-        <v>8090241</v>
+        <v>180384</v>
       </c>
       <c r="I14">
-        <v>18374.919999999998</v>
+        <v>5065.3649999999998</v>
       </c>
       <c r="J14">
-        <v>0.61276851258098508</v>
+        <v>0.83310360784535764</v>
       </c>
       <c r="K14">
-        <v>4160</v>
+        <v>480</v>
       </c>
       <c r="L14">
-        <v>3120</v>
+        <v>1040</v>
       </c>
       <c r="M14">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N14">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" x14ac:dyDescent="0.25">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
-        <v>0.42121854944210468</v>
+        <v>0.36439673621290519</v>
       </c>
       <c r="B15">
-        <v>0.372261748433793</v>
+        <v>0.59892392092072788</v>
       </c>
       <c r="C15">
-        <v>0.5261625394014886</v>
+        <v>0.68342884301209084</v>
       </c>
       <c r="D15">
-        <v>0.035523898192221376</v>
+        <v>0.024081649021495028</v>
       </c>
       <c r="E15">
-        <v>0.99544712282005665</v>
+        <v>0.9962690817513129</v>
       </c>
       <c r="F15">
-        <v>0.19001867858531327</v>
+        <v>0.29812004658296748</v>
       </c>
       <c r="G15">
-        <v>0.98223835918810276</v>
+        <v>0.98805826248529582</v>
       </c>
       <c r="H15">
-        <v>7528582</v>
+        <v>175166</v>
       </c>
       <c r="I15">
-        <v>16074.028</v>
+        <v>5087.8600000000006</v>
       </c>
       <c r="J15">
-        <v>0.60658683932531554</v>
+        <v>0.83827731888851642</v>
       </c>
       <c r="K15">
-        <v>4160</v>
+        <v>480</v>
       </c>
       <c r="L15">
-        <v>3120</v>
+        <v>1040</v>
       </c>
       <c r="M15">
-        <v>5200</v>
+        <v>1145.4256850621082</v>
       </c>
       <c r="N15">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" x14ac:dyDescent="0.25">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
-        <v>0.38621208634711918</v>
+        <v>0.42994254721987291</v>
       </c>
       <c r="B16">
-        <v>0.42937352888946162</v>
+        <v>0.35106276819289034</v>
       </c>
       <c r="C16">
-        <v>0.50389228345809034</v>
+        <v>0.7313040079211599</v>
       </c>
       <c r="D16">
-        <v>0.030060408291612203</v>
+        <v>0.025953188602442331</v>
       </c>
       <c r="E16">
-        <v>0.99632408834812081</v>
+        <v>0.99624038152416983</v>
       </c>
       <c r="F16">
-        <v>0.18651568638102239</v>
+        <v>0.31760278520014029</v>
       </c>
       <c r="G16">
-        <v>0.98497226212790101</v>
+        <v>0.98752840909090911</v>
       </c>
       <c r="H16">
-        <v>2197468</v>
+        <v>612225</v>
       </c>
       <c r="I16">
-        <v>18758.041999999998</v>
+        <v>4578.1959999999999</v>
       </c>
       <c r="J16">
-        <v>0.97976961982581379</v>
+        <v>0.88744865888964941</v>
       </c>
       <c r="K16">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L16">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M16">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N16">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
-        <v>0.37128958162184528</v>
+        <v>0.51512051690567051</v>
       </c>
       <c r="B17">
-        <v>0.4605958555532369</v>
+        <v>0.33017464202578312</v>
       </c>
       <c r="C17">
-        <v>0.50317284426380959</v>
+        <v>0.77751789182559961</v>
       </c>
       <c r="D17">
-        <v>0.02799205243297901</v>
+        <v>0.022580672554347821</v>
       </c>
       <c r="E17">
-        <v>0.99674661065558856</v>
+        <v>0.99751563257743425</v>
       </c>
       <c r="F17">
-        <v>0.19598779955784831</v>
+        <v>0.210314835464391</v>
       </c>
       <c r="G17">
-        <v>0.98600715938704875</v>
+        <v>0.98990397135416675</v>
       </c>
       <c r="H17">
-        <v>1640334</v>
+        <v>733466</v>
       </c>
       <c r="I17">
-        <v>19667.469000000001</v>
+        <v>4955.424</v>
       </c>
       <c r="J17">
-        <v>0.98226565150525669</v>
+        <v>0.84384058769195947</v>
       </c>
       <c r="K17">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L17">
-        <v>3120</v>
+        <v>737</v>
       </c>
       <c r="M17">
-        <v>5200</v>
+        <v>1761.5813918181584</v>
       </c>
       <c r="N17">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" x14ac:dyDescent="0.25">
+        <v>2.1709633649932156</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
-        <v>0.35378488314237055</v>
+        <v>0.52062442313280499</v>
       </c>
       <c r="B18">
-        <v>0.4881690579074629</v>
+        <v>0.31648055471775993</v>
       </c>
       <c r="C18">
-        <v>0.47858476940417188</v>
+        <v>0.79368634102350633</v>
       </c>
       <c r="D18">
-        <v>0.028206541174439537</v>
+        <v>0.022498301630434779</v>
       </c>
       <c r="E18">
-        <v>0.99662606845423973</v>
+        <v>0.99750699408058419</v>
       </c>
       <c r="F18">
-        <v>0.20358121259677883</v>
+        <v>0.22809015902138838</v>
       </c>
       <c r="G18">
-        <v>0.98589672941278028</v>
+        <v>0.99006496263586963</v>
       </c>
       <c r="H18">
-        <v>1242298</v>
+        <v>752162</v>
       </c>
       <c r="I18">
-        <v>10635.206</v>
+        <v>4895.3740000000007</v>
       </c>
       <c r="J18">
-        <v>0.96063871587894578</v>
+        <v>0.84462745540000683</v>
       </c>
       <c r="K18">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L18">
-        <v>3120</v>
+        <v>737</v>
       </c>
       <c r="M18">
-        <v>5200</v>
+        <v>1761.5813918181584</v>
       </c>
       <c r="N18">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" x14ac:dyDescent="0.25">
+        <v>2.1709633649932156</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
-        <v>0.47441882197792207</v>
+        <v>0.54325107794796523</v>
       </c>
       <c r="B19">
-        <v>0.35295116376126118</v>
+        <v>0.28111702594717458</v>
       </c>
       <c r="C19">
-        <v>0.61016404330191154</v>
+        <v>0.73850667784282309</v>
       </c>
       <c r="D19">
-        <v>0.036545474851158277</v>
+        <v>0.015759171195652177</v>
       </c>
       <c r="E19">
-        <v>0.99431933216721335</v>
+        <v>0.99740004514772174</v>
       </c>
       <c r="F19">
-        <v>0.19577715132695597</v>
+        <v>0.27686641537931334</v>
       </c>
       <c r="G19">
-        <v>0.98172959970325135</v>
+        <v>0.99299818840579734</v>
       </c>
       <c r="H19">
-        <v>4889644</v>
+        <v>758247</v>
       </c>
       <c r="I19">
-        <v>23209.361000000001</v>
+        <v>4978.6289999999999</v>
       </c>
       <c r="J19">
-        <v>0.64994406925796755</v>
+        <v>0.83756311855623633</v>
       </c>
       <c r="K19">
-        <v>3264</v>
+        <v>1600</v>
       </c>
       <c r="L19">
-        <v>2448</v>
+        <v>737</v>
       </c>
       <c r="M19">
-        <v>4080</v>
+        <v>1761.5813918181584</v>
       </c>
       <c r="N19">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" x14ac:dyDescent="0.25">
+        <v>2.1709633649932156</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
-        <v>0.446845051537682</v>
+        <v>0.24334567011325128</v>
       </c>
       <c r="B20">
-        <v>0.39290861934013122</v>
+        <v>0.34531523645887274</v>
       </c>
       <c r="C20">
-        <v>0.57810298253558778</v>
+        <v>0.63259131728292672</v>
       </c>
       <c r="D20">
-        <v>0.035734032068078549</v>
+        <v>0.069247795115332411</v>
       </c>
       <c r="E20">
-        <v>0.99520605629541625</v>
+        <v>0.98490109419250915</v>
       </c>
       <c r="F20">
-        <v>0.18066379713332009</v>
+        <v>0.30507258830527428</v>
       </c>
       <c r="G20">
-        <v>0.98213415253037617</v>
+        <v>0.96690630653550413</v>
       </c>
       <c r="H20">
-        <v>1978617</v>
+        <v>153676</v>
       </c>
       <c r="I20">
-        <v>11472.311</v>
+        <v>3182.0909999999999</v>
       </c>
       <c r="J20">
-        <v>0.95502889427161231</v>
+        <v>0.89834549359210059</v>
       </c>
       <c r="K20">
-        <v>3264</v>
+        <v>1600</v>
       </c>
       <c r="L20">
-        <v>2448</v>
+        <v>738</v>
       </c>
       <c r="M20">
-        <v>4080</v>
+        <v>1762</v>
       </c>
       <c r="N20">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
-        <v>0.43425918735138375</v>
+        <v>0.24022882237526194</v>
       </c>
       <c r="B21">
-        <v>0.42170815090600561</v>
+        <v>0.34322570594034996</v>
       </c>
       <c r="C21">
-        <v>0.57772698561512403</v>
+        <v>0.6380222580875714</v>
       </c>
       <c r="D21">
-        <v>0.034455580863322031</v>
+        <v>0.071683344640434174</v>
       </c>
       <c r="E21">
-        <v>0.99574661947924281</v>
+        <v>0.98510434309763728</v>
       </c>
       <c r="F21">
-        <v>0.17362291940740826</v>
+        <v>0.30336154461134557</v>
       </c>
       <c r="G21">
-        <v>0.98277220956833888</v>
+        <v>0.96635974954771586</v>
       </c>
       <c r="H21">
-        <v>1943720</v>
+        <v>200375</v>
       </c>
       <c r="I21">
-        <v>12807.855999999998</v>
+        <v>5454.5950000000003</v>
       </c>
       <c r="J21">
-        <v>0.96376335517287026</v>
+        <v>0.88267352297363544</v>
       </c>
       <c r="K21">
-        <v>3264</v>
+        <v>1600</v>
       </c>
       <c r="L21">
-        <v>2448</v>
+        <v>738</v>
       </c>
       <c r="M21">
-        <v>4080</v>
+        <v>1762</v>
       </c>
       <c r="N21">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
-        <v>0.41027190284190551</v>
+        <v>0.24653538322753446</v>
       </c>
       <c r="B22">
-        <v>0.47268691979252381</v>
+        <v>0.31373686829208625</v>
       </c>
       <c r="C22">
-        <v>0.55113414675999239</v>
+        <v>0.64066615521306469</v>
       </c>
       <c r="D22">
-        <v>0.029996464257954915</v>
+        <v>0.068895861601085517</v>
       </c>
       <c r="E22">
-        <v>0.99641217437148322</v>
+        <v>0.98629687608481242</v>
       </c>
       <c r="F22">
-        <v>0.1829530555988057</v>
+        <v>0.30979703247861157</v>
       </c>
       <c r="G22">
-        <v>0.98500193480879628</v>
+        <v>0.96755738353686116</v>
       </c>
       <c r="H22">
-        <v>1792915</v>
+        <v>222537</v>
       </c>
       <c r="I22">
-        <v>12840.143</v>
+        <v>5272.2159999999994</v>
       </c>
       <c r="J22">
-        <v>0.9755072767899442</v>
+        <v>0.90376725237983224</v>
       </c>
       <c r="K22">
-        <v>3264</v>
+        <v>1600</v>
       </c>
       <c r="L22">
-        <v>2448</v>
+        <v>738</v>
       </c>
       <c r="M22">
-        <v>4080</v>
+        <v>1762</v>
       </c>
       <c r="N22">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
-        <v>0.35952044354340279</v>
+        <v>0.43218131402683524</v>
       </c>
       <c r="B23">
-        <v>0.58962279341888624</v>
+        <v>0.35565170737981011</v>
       </c>
       <c r="C23">
-        <v>0.50368979325592655</v>
+        <v>0.72804021866588253</v>
       </c>
       <c r="D23">
-        <v>0.030353740720645173</v>
+        <v>0.025396031207598372</v>
       </c>
       <c r="E23">
-        <v>0.99658181555911596</v>
+        <v>0.99627022994698422</v>
       </c>
       <c r="F23">
-        <v>0.2206465559269763</v>
+        <v>0.30666611451011339</v>
       </c>
       <c r="G23">
-        <v>0.98482312963967733</v>
+        <v>0.98768734452736329</v>
       </c>
       <c r="H23">
-        <v>2102909</v>
+        <v>612723</v>
       </c>
       <c r="I23">
-        <v>14006.454</v>
+        <v>7762.2049999999999</v>
       </c>
       <c r="J23">
-        <v>0.99016612054893671</v>
+        <v>0.89842092248027894</v>
       </c>
       <c r="K23">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L23">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M23">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N23">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24">
-        <v>0.57642988373150728</v>
+        <v>0.43628417059476926</v>
       </c>
       <c r="B24">
-        <v>0.31576495565412099</v>
+        <v>0.35098639626224754</v>
       </c>
       <c r="C24">
-        <v>0.86120052785597789</v>
+        <v>0.72724362014893162</v>
       </c>
       <c r="D24">
-        <v>0.018206579506802725</v>
+        <v>0.0274041723202171</v>
       </c>
       <c r="E24">
-        <v>0.99632512412614915</v>
+        <v>0.99602767637198353</v>
       </c>
       <c r="F24">
-        <v>0.35389158923344927</v>
+        <v>0.29877193827738235</v>
       </c>
       <c r="G24">
-        <v>0.99145983914399105</v>
+        <v>0.98681238692899131</v>
       </c>
       <c r="H24">
-        <v>569340</v>
+        <v>620129</v>
       </c>
       <c r="I24">
-        <v>3691.5250000000001</v>
+        <v>4578.1959999999999</v>
       </c>
       <c r="J24">
-        <v>0.86143793259334211</v>
+        <v>0.88846620191430103</v>
       </c>
       <c r="K24">
-        <v>1280</v>
+        <v>1600</v>
       </c>
       <c r="L24">
-        <v>589</v>
+        <v>738</v>
       </c>
       <c r="M24">
-        <v>1409.0141943926612</v>
+        <v>1762</v>
       </c>
       <c r="N24">
-        <v>2.1731748726655349</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25">
-        <v>0.31776342384229672</v>
+        <v>0.43292181497445137</v>
       </c>
       <c r="B25">
-        <v>0.67204819149812589</v>
+        <v>0.35247429929472368</v>
       </c>
       <c r="C25">
-        <v>0.44160464825878865</v>
+        <v>0.72577566887592149</v>
       </c>
       <c r="D25">
-        <v>0.02533595272153303</v>
+        <v>0.02476170284938942</v>
       </c>
       <c r="E25">
-        <v>0.99643340992495144</v>
+        <v>0.99633692629859805</v>
       </c>
       <c r="F25">
-        <v>0.28494225877549001</v>
+        <v>0.30779827406531157</v>
       </c>
       <c r="G25">
-        <v>0.98733202363923356</v>
+        <v>0.98803214043419252</v>
       </c>
       <c r="H25">
-        <v>1020507</v>
+        <v>612705</v>
       </c>
       <c r="I25">
-        <v>10105.85</v>
+        <v>7372.4859999999999</v>
       </c>
       <c r="J25">
-        <v>0.98684668679961429</v>
+        <v>0.90333975568818248</v>
       </c>
       <c r="K25">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L25">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M25">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N25">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26">
-        <v>0.39546376580266313</v>
+        <v>0.54560859605065615</v>
       </c>
       <c r="B26">
-        <v>0.5271671282160072</v>
+        <v>0.34782239268018394</v>
       </c>
       <c r="C26">
-        <v>0.52232656141444966</v>
+        <v>0.75097274323802243</v>
       </c>
       <c r="D26">
-        <v>0.031768996473228589</v>
+        <v>0.01213485054347826</v>
       </c>
       <c r="E26">
-        <v>0.99661172915060081</v>
+        <v>0.99774196990284247</v>
       </c>
       <c r="F26">
-        <v>0.21620029021950371</v>
+        <v>0.23983961679209836</v>
       </c>
       <c r="G26">
-        <v>0.98411550176338558</v>
+        <v>0.99403560914855071</v>
       </c>
       <c r="H26">
-        <v>2522279</v>
+        <v>824890</v>
       </c>
       <c r="I26">
-        <v>13617.876</v>
+        <v>4747.6999999999998</v>
       </c>
       <c r="J26">
-        <v>0.98487021423399113</v>
+        <v>0.84498565287525518</v>
       </c>
       <c r="K26">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L26">
-        <v>3120</v>
+        <v>737</v>
       </c>
       <c r="M26">
-        <v>5200</v>
+        <v>1761.5813918181584</v>
       </c>
       <c r="N26">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" x14ac:dyDescent="0.25">
+        <v>2.1709633649932156</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
-        <v>0.36041074240477189</v>
+        <v>0.2827411773072615</v>
       </c>
       <c r="B27">
-        <v>0.59871659046997794</v>
+        <v>0.34635141391466928</v>
       </c>
       <c r="C27">
-        <v>0.49246071601764785</v>
+        <v>0.79732654165905037</v>
       </c>
       <c r="D27">
-        <v>0.026812325819419443</v>
+        <v>0.056126187245590244</v>
       </c>
       <c r="E27">
-        <v>0.99694988834337839</v>
+        <v>0.99187303241308811</v>
       </c>
       <c r="F27">
-        <v>0.23764091184276429</v>
+        <v>0.33037989666170892</v>
       </c>
       <c r="G27">
-        <v>0.98659383709029014</v>
+        <v>0.97371197987336067</v>
       </c>
       <c r="H27">
-        <v>1787080</v>
+        <v>655429</v>
       </c>
       <c r="I27">
-        <v>13656.892</v>
+        <v>4578.1959999999999</v>
       </c>
       <c r="J27">
-        <v>0.99104580357146344</v>
+        <v>0.88431494990342452</v>
       </c>
       <c r="K27">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L27">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M27">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N27">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28">
-        <v>0.35914040585665474</v>
+        <v>0.28730251915910288</v>
       </c>
       <c r="B28">
-        <v>0.59976657580998471</v>
+        <v>0.35199291239696306</v>
       </c>
       <c r="C28">
-        <v>0.49371894215258844</v>
+        <v>0.7938613967258541</v>
       </c>
       <c r="D28">
-        <v>0.025685932374774959</v>
+        <v>0.057087856173677079</v>
       </c>
       <c r="E28">
-        <v>0.99700559545600054</v>
+        <v>0.99169616088504364</v>
       </c>
       <c r="F28">
-        <v>0.24371707440133844</v>
+        <v>0.31561446278258931</v>
       </c>
       <c r="G28">
-        <v>0.98715703381261222</v>
+        <v>0.97328188602442323</v>
       </c>
       <c r="H28">
-        <v>1885954</v>
+        <v>648274</v>
       </c>
       <c r="I28">
-        <v>13785.536000000002</v>
+        <v>4578.1959999999999</v>
       </c>
       <c r="J28">
-        <v>0.99018675660024646</v>
+        <v>0.88348457290528104</v>
       </c>
       <c r="K28">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L28">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M28">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N28">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
-        <v>0.35557522397435243</v>
+        <v>0.28633044314055722</v>
       </c>
       <c r="B29">
-        <v>0.61414456794665273</v>
+        <v>0.31925875544346366</v>
       </c>
       <c r="C29">
-        <v>0.48372574218406561</v>
+        <v>0.80354152385813493</v>
       </c>
       <c r="D29">
-        <v>0.025274372949909977</v>
+        <v>0.05246099050203528</v>
       </c>
       <c r="E29">
-        <v>0.99685118099903958</v>
+        <v>0.99220174215910639</v>
       </c>
       <c r="F29">
-        <v>0.24952215708508185</v>
+        <v>0.33473319939184437</v>
       </c>
       <c r="G29">
-        <v>0.98736281352504507</v>
+        <v>0.97546443916779735</v>
       </c>
       <c r="H29">
-        <v>2483661</v>
+        <v>674301</v>
       </c>
       <c r="I29">
-        <v>13908.253000000001</v>
+        <v>4578.1959999999999</v>
       </c>
       <c r="J29">
-        <v>0.98525858239980746</v>
+        <v>0.88286158543848436</v>
       </c>
       <c r="K29">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="L29">
-        <v>3120</v>
+        <v>738</v>
       </c>
       <c r="M29">
-        <v>5200</v>
+        <v>1762</v>
       </c>
       <c r="N29">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
-        <v>0.46546711137066488</v>
+        <v>0.20128145029932648</v>
       </c>
       <c r="B30">
-        <v>0.36612050313232875</v>
+        <v>0.43296121934144804</v>
       </c>
       <c r="C30">
-        <v>0.56872016224755728</v>
+        <v>0.708826066739494</v>
       </c>
       <c r="D30">
-        <v>0.027413723687452304</v>
+        <v>0.054903324287652641</v>
       </c>
       <c r="E30">
-        <v>0.99651993734301836</v>
+        <v>0.98827787090231611</v>
       </c>
       <c r="F30">
-        <v>0.19813935152051587</v>
+        <v>0.33643814391935334</v>
       </c>
       <c r="G30">
-        <v>0.98629998190579382</v>
+        <v>0.97409203980099501</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>335692</v>
       </c>
       <c r="I30">
-        <v>6.1859999999999991</v>
+        <v>7916.2669999999998</v>
       </c>
       <c r="J30">
-        <v>0.77948376295395716</v>
+        <v>0.87669715284055438</v>
       </c>
       <c r="K30">
-        <v>2448</v>
+        <v>1600</v>
       </c>
       <c r="L30">
-        <v>3264</v>
+        <v>738</v>
       </c>
       <c r="M30">
-        <v>4080</v>
+        <v>1762</v>
       </c>
       <c r="N30">
-        <v>0.75</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" x14ac:dyDescent="0.25">
+        <v>2.168021680216802</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
         <v>0.45349063179984461</v>
       </c>
@@ -2042,11 +1630,11 @@
       <c r="N31">
         <v>0.75</v>
       </c>
-      <c r="O31" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>14</v>
+      <c r="O31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2092,11 +1680,11 @@
       <c r="N32">
         <v>0.75</v>
       </c>
-      <c r="O32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P32" s="14" t="s">
-        <v>14</v>
+      <c r="O32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2142,11 +1730,11 @@
       <c r="N33">
         <v>0.75</v>
       </c>
-      <c r="O33" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P33" s="14" t="s">
-        <v>14</v>
+      <c r="O33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2192,11 +1780,11 @@
       <c r="N34">
         <v>0.75</v>
       </c>
-      <c r="O34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>15</v>
+      <c r="O34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2242,11 +1830,11 @@
       <c r="N35">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O35" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>14</v>
+      <c r="O35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2292,11 +1880,11 @@
       <c r="N36">
         <v>0.75</v>
       </c>
-      <c r="O36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P36" s="14" t="s">
-        <v>14</v>
+      <c r="O36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2342,11 +1930,11 @@
       <c r="N37">
         <v>0.75</v>
       </c>
-      <c r="O37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P37" s="14" t="s">
-        <v>14</v>
+      <c r="O37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2392,11 +1980,11 @@
       <c r="N38">
         <v>0.75</v>
       </c>
-      <c r="O38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P38" s="14" t="s">
-        <v>14</v>
+      <c r="O38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2442,11 +2030,11 @@
       <c r="N39">
         <v>0.75</v>
       </c>
-      <c r="O39" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P39" s="14" t="s">
-        <v>14</v>
+      <c r="O39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2492,11 +2080,11 @@
       <c r="N40">
         <v>0.75</v>
       </c>
-      <c r="O40" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P40" s="14" t="s">
-        <v>15</v>
+      <c r="O40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2542,11 +2130,11 @@
       <c r="N41">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P41" s="14" t="s">
-        <v>14</v>
+      <c r="O41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2592,11 +2180,11 @@
       <c r="N42">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O42" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P42" s="14" t="s">
-        <v>14</v>
+      <c r="O42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2642,11 +2230,11 @@
       <c r="N43">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O43" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P43" s="14" t="s">
-        <v>14</v>
+      <c r="O43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2692,11 +2280,11 @@
       <c r="N44">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O44" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P44" s="14" t="s">
-        <v>14</v>
+      <c r="O44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2742,11 +2330,11 @@
       <c r="N45">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P45" s="14" t="s">
-        <v>14</v>
+      <c r="O45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2792,11 +2380,11 @@
       <c r="N46">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O46" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P46" s="14" t="s">
-        <v>15</v>
+      <c r="O46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2842,11 +2430,11 @@
       <c r="N47">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O47" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P47" s="14" t="s">
-        <v>14</v>
+      <c r="O47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2892,11 +2480,11 @@
       <c r="N48">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O48" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>14</v>
+      <c r="O48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2942,11 +2530,11 @@
       <c r="N49">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O49" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P49" s="14" t="s">
-        <v>14</v>
+      <c r="O49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2992,11 +2580,11 @@
       <c r="N50">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O50" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P50" s="14" t="s">
-        <v>14</v>
+      <c r="O50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3042,11 +2630,11 @@
       <c r="N51">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O51" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P51" s="14" t="s">
-        <v>14</v>
+      <c r="O51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3092,11 +2680,11 @@
       <c r="N52">
         <v>0.75</v>
       </c>
-      <c r="O52" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P52" s="14" t="s">
-        <v>14</v>
+      <c r="O52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3142,11 +2730,11 @@
       <c r="N53">
         <v>0.75</v>
       </c>
-      <c r="O53" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P53" s="14" t="s">
-        <v>14</v>
+      <c r="O53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3192,11 +2780,11 @@
       <c r="N54">
         <v>0.75</v>
       </c>
-      <c r="O54" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P54" s="14" t="s">
-        <v>14</v>
+      <c r="O54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3242,11 +2830,11 @@
       <c r="N55">
         <v>0.75</v>
       </c>
-      <c r="O55" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P55" s="14" t="s">
-        <v>14</v>
+      <c r="O55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3292,11 +2880,11 @@
       <c r="N56">
         <v>0.75</v>
       </c>
-      <c r="O56" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P56" s="14" t="s">
-        <v>14</v>
+      <c r="O56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3342,11 +2930,11 @@
       <c r="N57">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O57" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P57" s="14" t="s">
-        <v>15</v>
+      <c r="O57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3392,11 +2980,11 @@
       <c r="N58">
         <v>0.75</v>
       </c>
-      <c r="O58" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P58" s="14" t="s">
-        <v>14</v>
+      <c r="O58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3442,11 +3030,11 @@
       <c r="N59">
         <v>0.75</v>
       </c>
-      <c r="O59" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P59" s="14" t="s">
-        <v>14</v>
+      <c r="O59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3492,11 +3080,11 @@
       <c r="N60">
         <v>0.75</v>
       </c>
-      <c r="O60" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P60" s="14" t="s">
-        <v>14</v>
+      <c r="O60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3542,11 +3130,11 @@
       <c r="N61">
         <v>0.75</v>
       </c>
-      <c r="O61" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P61" s="14" t="s">
-        <v>14</v>
+      <c r="O61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3592,11 +3180,11 @@
       <c r="N62">
         <v>0.75</v>
       </c>
-      <c r="O62" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P62" s="14" t="s">
-        <v>14</v>
+      <c r="O62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3642,11 +3230,11 @@
       <c r="N63">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O63" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P63" s="14" t="s">
-        <v>14</v>
+      <c r="O63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3692,11 +3280,11 @@
       <c r="N64">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O64" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P64" s="14" t="s">
-        <v>14</v>
+      <c r="O64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3742,11 +3330,11 @@
       <c r="N65">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O65" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P65" s="14" t="s">
-        <v>14</v>
+      <c r="O65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3792,11 +3380,11 @@
       <c r="N66">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O66" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P66" s="14" t="s">
-        <v>14</v>
+      <c r="O66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3842,11 +3430,11 @@
       <c r="N67">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O67" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P67" s="14" t="s">
-        <v>14</v>
+      <c r="O67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3892,11 +3480,11 @@
       <c r="N68">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O68" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P68" s="14" t="s">
-        <v>14</v>
+      <c r="O68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3942,11 +3530,11 @@
       <c r="N69">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O69" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P69" s="14" t="s">
-        <v>14</v>
+      <c r="O69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3992,11 +3580,11 @@
       <c r="N70">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O70" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P70" s="14" t="s">
-        <v>14</v>
+      <c r="O70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -4042,11 +3630,11 @@
       <c r="N71">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O71" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P71" s="14" t="s">
-        <v>14</v>
+      <c r="O71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4092,11 +3680,11 @@
       <c r="N72">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O72" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P72" s="14" t="s">
-        <v>14</v>
+      <c r="O72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4142,11 +3730,11 @@
       <c r="N73">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O73" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P73" s="14" t="s">
-        <v>14</v>
+      <c r="O73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4192,11 +3780,11 @@
       <c r="N74">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O74" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P74" s="14" t="s">
-        <v>14</v>
+      <c r="O74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4242,11 +3830,11 @@
       <c r="N75">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O75" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P75" s="14" t="s">
-        <v>14</v>
+      <c r="O75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4292,11 +3880,11 @@
       <c r="N76">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O76" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P76" s="14" t="s">
-        <v>14</v>
+      <c r="O76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -4342,11 +3930,11 @@
       <c r="N77">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O77" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P77" s="14" t="s">
-        <v>14</v>
+      <c r="O77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -4392,11 +3980,11 @@
       <c r="N78">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O78" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P78" s="14" t="s">
-        <v>14</v>
+      <c r="O78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4442,11 +4030,11 @@
       <c r="N79">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O79" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P79" s="14" t="s">
-        <v>14</v>
+      <c r="O79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4492,11 +4080,11 @@
       <c r="N80">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O80" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P80" s="14" t="s">
-        <v>14</v>
+      <c r="O80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -4542,11 +4130,11 @@
       <c r="N81">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O81" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P81" s="14" t="s">
-        <v>14</v>
+      <c r="O81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4592,11 +4180,11 @@
       <c r="N82">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O82" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P82" s="14" t="s">
-        <v>14</v>
+      <c r="O82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4642,11 +4230,11 @@
       <c r="N83">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O83" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P83" s="14" t="s">
-        <v>14</v>
+      <c r="O83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4692,11 +4280,11 @@
       <c r="N84">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O84" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P84" s="14" t="s">
-        <v>15</v>
+      <c r="O84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4742,11 +4330,11 @@
       <c r="N85">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O85" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P85" s="14" t="s">
-        <v>15</v>
+      <c r="O85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4792,11 +4380,11 @@
       <c r="N86">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O86" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P86" s="14" t="s">
-        <v>15</v>
+      <c r="O86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4842,11 +4430,11 @@
       <c r="N87">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O87" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P87" s="14" t="s">
-        <v>15</v>
+      <c r="O87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -4892,11 +4480,11 @@
       <c r="N88">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O88" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P88" s="14" t="s">
-        <v>14</v>
+      <c r="O88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4942,11 +4530,11 @@
       <c r="N89">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O89" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P89" s="14" t="s">
-        <v>15</v>
+      <c r="O89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4992,11 +4580,11 @@
       <c r="N90">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O90" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P90" s="14" t="s">
-        <v>15</v>
+      <c r="O90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -5042,11 +4630,11 @@
       <c r="N91">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O91" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P91" s="14" t="s">
-        <v>15</v>
+      <c r="O91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -5092,11 +4680,11 @@
       <c r="N92">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O92" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P92" s="14" t="s">
-        <v>14</v>
+      <c r="O92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -5142,11 +4730,11 @@
       <c r="N93">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O93" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P93" s="14" t="s">
-        <v>14</v>
+      <c r="O93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -5192,11 +4780,11 @@
       <c r="N94">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O94" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P94" s="14" t="s">
-        <v>14</v>
+      <c r="O94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -5242,11 +4830,11 @@
       <c r="N95">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O95" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P95" s="14" t="s">
-        <v>14</v>
+      <c r="O95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -5292,11 +4880,11 @@
       <c r="N96">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O96" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P96" s="14" t="s">
-        <v>14</v>
+      <c r="O96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5342,11 +4930,11 @@
       <c r="N97">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O97" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P97" s="14" t="s">
-        <v>14</v>
+      <c r="O97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5392,11 +4980,11 @@
       <c r="N98">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O98" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P98" s="14" t="s">
-        <v>14</v>
+      <c r="O98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5442,11 +5030,11 @@
       <c r="N99">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O99" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P99" s="14" t="s">
-        <v>14</v>
+      <c r="O99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5492,11 +5080,11 @@
       <c r="N100">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O100" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P100" s="14" t="s">
-        <v>14</v>
+      <c r="O100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5542,11 +5130,11 @@
       <c r="N101">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O101" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P101" s="14" t="s">
-        <v>14</v>
+      <c r="O101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5592,11 +5180,11 @@
       <c r="N102">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O102" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P102" s="14" t="s">
-        <v>14</v>
+      <c r="O102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -5642,11 +5230,11 @@
       <c r="N103">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O103" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P103" s="14" t="s">
-        <v>14</v>
+      <c r="O103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -5692,11 +5280,11 @@
       <c r="N104">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O104" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P104" s="14" t="s">
-        <v>14</v>
+      <c r="O104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -5742,11 +5330,11 @@
       <c r="N105">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O105" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P105" s="14" t="s">
-        <v>14</v>
+      <c r="O105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5792,11 +5380,11 @@
       <c r="N106">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O106" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P106" s="14" t="s">
-        <v>14</v>
+      <c r="O106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -5842,11 +5430,11 @@
       <c r="N107">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O107" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P107" s="14" t="s">
-        <v>14</v>
+      <c r="O107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -5892,11 +5480,11 @@
       <c r="N108">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O108" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P108" s="14" t="s">
-        <v>14</v>
+      <c r="O108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -5942,11 +5530,11 @@
       <c r="N109">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O109" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P109" s="14" t="s">
-        <v>14</v>
+      <c r="O109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -5992,11 +5580,11 @@
       <c r="N110">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O110" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P110" s="14" t="s">
-        <v>14</v>
+      <c r="O110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -6042,11 +5630,11 @@
       <c r="N111">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O111" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P111" s="14" t="s">
-        <v>14</v>
+      <c r="O111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -6092,11 +5680,11 @@
       <c r="N112">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O112" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P112" s="14" t="s">
-        <v>14</v>
+      <c r="O112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -6142,11 +5730,11 @@
       <c r="N113">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O113" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P113" s="14" t="s">
-        <v>14</v>
+      <c r="O113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -6192,11 +5780,11 @@
       <c r="N114">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O114" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P114" s="14" t="s">
-        <v>14</v>
+      <c r="O114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -6242,11 +5830,11 @@
       <c r="N115">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O115" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P115" s="14" t="s">
-        <v>14</v>
+      <c r="O115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -6292,11 +5880,11 @@
       <c r="N116">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O116" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P116" s="14" t="s">
-        <v>14</v>
+      <c r="O116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -6342,11 +5930,11 @@
       <c r="N117">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O117" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P117" s="14" t="s">
-        <v>14</v>
+      <c r="O117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -6392,11 +5980,11 @@
       <c r="N118">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O118" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P118" s="14" t="s">
-        <v>14</v>
+      <c r="O118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -6442,11 +6030,11 @@
       <c r="N119">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O119" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P119" s="14" t="s">
-        <v>14</v>
+      <c r="O119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -6492,11 +6080,11 @@
       <c r="N120">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O120" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P120" s="14" t="s">
-        <v>14</v>
+      <c r="O120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -6542,11 +6130,11 @@
       <c r="N121">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O121" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P121" s="14" t="s">
-        <v>14</v>
+      <c r="O121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -6592,11 +6180,11 @@
       <c r="N122">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O122" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P122" s="14" t="s">
-        <v>14</v>
+      <c r="O122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -6642,11 +6230,11 @@
       <c r="N123">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O123" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P123" s="14" t="s">
-        <v>15</v>
+      <c r="O123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -6692,11 +6280,11 @@
       <c r="N124">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O124" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P124" s="14" t="s">
-        <v>14</v>
+      <c r="O124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -6742,11 +6330,11 @@
       <c r="N125">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O125" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P125" s="14" t="s">
-        <v>14</v>
+      <c r="O125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -6792,11 +6380,11 @@
       <c r="N126">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O126" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P126" s="14" t="s">
-        <v>14</v>
+      <c r="O126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -6842,11 +6430,11 @@
       <c r="N127">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O127" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P127" s="14" t="s">
-        <v>14</v>
+      <c r="O127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -6892,11 +6480,11 @@
       <c r="N128">
         <v>0.46153846153846156</v>
       </c>
-      <c r="O128" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P128" s="14" t="s">
-        <v>14</v>
+      <c r="O128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -6942,11 +6530,11 @@
       <c r="N129">
         <v>0.46153846153846156</v>
       </c>
-      <c r="O129" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P129" s="14" t="s">
-        <v>14</v>
+      <c r="O129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -6992,11 +6580,11 @@
       <c r="N130">
         <v>0.46015624999999999</v>
       </c>
-      <c r="O130" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P130" s="14" t="s">
-        <v>14</v>
+      <c r="O130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -7042,11 +6630,11 @@
       <c r="N131">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O131" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P131" s="14" t="s">
-        <v>14</v>
+      <c r="O131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -7092,11 +6680,11 @@
       <c r="N132">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O132" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P132" s="14" t="s">
-        <v>14</v>
+      <c r="O132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -7142,11 +6730,11 @@
       <c r="N133">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O133" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P133" s="14" t="s">
-        <v>14</v>
+      <c r="O133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -7192,11 +6780,11 @@
       <c r="N134">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O134" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P134" s="14" t="s">
-        <v>14</v>
+      <c r="O134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -7242,11 +6830,11 @@
       <c r="N135">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O135" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P135" s="14" t="s">
-        <v>14</v>
+      <c r="O135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -7292,11 +6880,11 @@
       <c r="N136">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O136" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P136" s="14" t="s">
-        <v>14</v>
+      <c r="O136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -7342,11 +6930,11 @@
       <c r="N137">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O137" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P137" s="14" t="s">
-        <v>14</v>
+      <c r="O137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -7392,11 +6980,11 @@
       <c r="N138">
         <v>2.1731748726655349</v>
       </c>
-      <c r="O138" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P138" s="14" t="s">
-        <v>14</v>
+      <c r="O138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -7442,11 +7030,11 @@
       <c r="N139">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O139" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P139" s="14" t="s">
-        <v>14</v>
+      <c r="O139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -7492,11 +7080,11 @@
       <c r="N140">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O140" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P140" s="14" t="s">
-        <v>14</v>
+      <c r="O140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -7542,11 +7130,11 @@
       <c r="N141">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O141" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P141" s="14" t="s">
-        <v>14</v>
+      <c r="O141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -7592,11 +7180,11 @@
       <c r="N142">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O142" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P142" s="14" t="s">
-        <v>14</v>
+      <c r="O142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -7642,11 +7230,11 @@
       <c r="N143">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O143" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P143" s="14" t="s">
-        <v>15</v>
+      <c r="O143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -7692,11 +7280,11 @@
       <c r="N144">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O144" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P144" s="14" t="s">
-        <v>14</v>
+      <c r="O144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -7742,11 +7330,11 @@
       <c r="N145">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O145" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P145" s="14" t="s">
-        <v>14</v>
+      <c r="O145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -7792,11 +7380,11 @@
       <c r="N146">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O146" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P146" s="14" t="s">
-        <v>14</v>
+      <c r="O146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -7842,11 +7430,11 @@
       <c r="N147">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O147" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P147" s="14" t="s">
-        <v>14</v>
+      <c r="O147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -7892,11 +7480,11 @@
       <c r="N148">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O148" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P148" s="14" t="s">
-        <v>14</v>
+      <c r="O148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -7942,11 +7530,11 @@
       <c r="N149">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O149" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P149" s="14" t="s">
-        <v>14</v>
+      <c r="O149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -7992,11 +7580,11 @@
       <c r="N150">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O150" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P150" s="14" t="s">
-        <v>14</v>
+      <c r="O150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -8042,11 +7630,11 @@
       <c r="N151">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O151" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P151" s="14" t="s">
-        <v>14</v>
+      <c r="O151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -8092,11 +7680,11 @@
       <c r="N152">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O152" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P152" s="14" t="s">
-        <v>14</v>
+      <c r="O152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -8142,11 +7730,11 @@
       <c r="N153">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O153" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P153" s="14" t="s">
-        <v>14</v>
+      <c r="O153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -8192,11 +7780,11 @@
       <c r="N154">
         <v>2.1666666666666665</v>
       </c>
-      <c r="O154" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P154" s="14" t="s">
-        <v>15</v>
+      <c r="O154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -8242,11 +7830,11 @@
       <c r="N155">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O155" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P155" s="14" t="s">
-        <v>14</v>
+      <c r="O155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -8292,11 +7880,11 @@
       <c r="N156">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O156" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P156" s="14" t="s">
-        <v>14</v>
+      <c r="O156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -8342,11 +7930,11 @@
       <c r="N157">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O157" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P157" s="14" t="s">
-        <v>15</v>
+      <c r="O157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -8392,11 +7980,11 @@
       <c r="N158">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O158" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P158" s="14" t="s">
-        <v>15</v>
+      <c r="O158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -8442,11 +8030,11 @@
       <c r="N159">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O159" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P159" s="14" t="s">
-        <v>15</v>
+      <c r="O159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -8492,11 +8080,11 @@
       <c r="N160">
         <v>0.75</v>
       </c>
-      <c r="O160" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P160" s="14" t="s">
-        <v>14</v>
+      <c r="O160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -8542,11 +8130,11 @@
       <c r="N161">
         <v>0.75</v>
       </c>
-      <c r="O161" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P161" s="14" t="s">
-        <v>14</v>
+      <c r="O161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -8592,11 +8180,11 @@
       <c r="N162">
         <v>0.75</v>
       </c>
-      <c r="O162" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P162" s="14" t="s">
-        <v>14</v>
+      <c r="O162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -8642,11 +8230,11 @@
       <c r="N163">
         <v>0.75</v>
       </c>
-      <c r="O163" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P163" s="14" t="s">
-        <v>14</v>
+      <c r="O163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -8692,11 +8280,11 @@
       <c r="N164">
         <v>0.75</v>
       </c>
-      <c r="O164" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P164" s="14" t="s">
-        <v>14</v>
+      <c r="O164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -8742,11 +8330,11 @@
       <c r="N165">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O165" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P165" s="14" t="s">
-        <v>14</v>
+      <c r="O165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -8792,11 +8380,11 @@
       <c r="N166">
         <v>2.168021680216802</v>
       </c>
-      <c r="O166" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P166" s="14" t="s">
-        <v>14</v>
+      <c r="O166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -8842,11 +8430,11 @@
       <c r="N167">
         <v>0.75</v>
       </c>
-      <c r="O167" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P167" s="14" t="s">
-        <v>15</v>
+      <c r="O167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -8892,11 +8480,11 @@
       <c r="N168">
         <v>0.75</v>
       </c>
-      <c r="O168" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P168" s="14" t="s">
-        <v>15</v>
+      <c r="O168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -8942,11 +8530,11 @@
       <c r="N169">
         <v>0.75</v>
       </c>
-      <c r="O169" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P169" s="14" t="s">
-        <v>15</v>
+      <c r="O169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -8992,11 +8580,11 @@
       <c r="N170">
         <v>0.75</v>
       </c>
-      <c r="O170" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P170" s="14" t="s">
-        <v>15</v>
+      <c r="O170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -9042,11 +8630,11 @@
       <c r="N171">
         <v>0.75</v>
       </c>
-      <c r="O171" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P171" s="14" t="s">
-        <v>15</v>
+      <c r="O171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -9092,11 +8680,11 @@
       <c r="N172">
         <v>0.75</v>
       </c>
-      <c r="O172" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P172" s="14" t="s">
-        <v>15</v>
+      <c r="O172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -9142,11 +8730,11 @@
       <c r="N173">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O173" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P173" s="14" t="s">
-        <v>14</v>
+      <c r="O173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -9192,11 +8780,11 @@
       <c r="N174">
         <v>2.168021680216802</v>
       </c>
-      <c r="O174" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P174" s="14" t="s">
-        <v>14</v>
+      <c r="O174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -9242,11 +8830,11 @@
       <c r="N175">
         <v>2.168021680216802</v>
       </c>
-      <c r="O175" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P175" s="14" t="s">
-        <v>15</v>
+      <c r="O175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -9292,11 +8880,11 @@
       <c r="N176">
         <v>2.168021680216802</v>
       </c>
-      <c r="O176" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P176" s="14" t="s">
-        <v>14</v>
+      <c r="O176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -9342,11 +8930,11 @@
       <c r="N177">
         <v>2.168021680216802</v>
       </c>
-      <c r="O177" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P177" s="14" t="s">
-        <v>14</v>
+      <c r="O177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -9392,11 +8980,11 @@
       <c r="N178">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O178" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P178" s="14" t="s">
-        <v>14</v>
+      <c r="O178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -9442,11 +9030,11 @@
       <c r="N179">
         <v>2.168021680216802</v>
       </c>
-      <c r="O179" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P179" s="14" t="s">
-        <v>15</v>
+      <c r="O179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -9492,11 +9080,11 @@
       <c r="N180">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O180" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P180" s="14" t="s">
-        <v>14</v>
+      <c r="O180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -9542,11 +9130,11 @@
       <c r="N181">
         <v>2.168021680216802</v>
       </c>
-      <c r="O181" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P181" s="14" t="s">
-        <v>15</v>
+      <c r="O181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -9592,11 +9180,11 @@
       <c r="N182">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O182" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P182" s="14" t="s">
-        <v>14</v>
+      <c r="O182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -9642,11 +9230,11 @@
       <c r="N183">
         <v>2.168021680216802</v>
       </c>
-      <c r="O183" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P183" s="14" t="s">
-        <v>14</v>
+      <c r="O183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -9692,11 +9280,11 @@
       <c r="N184">
         <v>2.168021680216802</v>
       </c>
-      <c r="O184" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P184" s="14" t="s">
-        <v>14</v>
+      <c r="O184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -9742,11 +9330,11 @@
       <c r="N185">
         <v>2.168021680216802</v>
       </c>
-      <c r="O185" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P185" s="14" t="s">
-        <v>15</v>
+      <c r="O185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -9792,11 +9380,11 @@
       <c r="N186">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O186" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P186" s="14" t="s">
-        <v>14</v>
+      <c r="O186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -9842,11 +9430,11 @@
       <c r="N187">
         <v>2.168021680216802</v>
       </c>
-      <c r="O187" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P187" s="14" t="s">
-        <v>14</v>
+      <c r="O187" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -9892,11 +9480,11 @@
       <c r="N188">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O188" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P188" s="14" t="s">
-        <v>14</v>
+      <c r="O188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -9942,11 +9530,11 @@
       <c r="N189">
         <v>2.168021680216802</v>
       </c>
-      <c r="O189" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P189" s="14" t="s">
-        <v>14</v>
+      <c r="O189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -9992,11 +9580,11 @@
       <c r="N190">
         <v>2.168021680216802</v>
       </c>
-      <c r="O190" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P190" s="14" t="s">
-        <v>15</v>
+      <c r="O190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -10042,11 +9630,11 @@
       <c r="N191">
         <v>2.168021680216802</v>
       </c>
-      <c r="O191" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P191" s="14" t="s">
-        <v>15</v>
+      <c r="O191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -10092,11 +9680,11 @@
       <c r="N192">
         <v>2.168021680216802</v>
       </c>
-      <c r="O192" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P192" s="14" t="s">
-        <v>14</v>
+      <c r="O192" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -10142,11 +9730,11 @@
       <c r="N193">
         <v>2.168021680216802</v>
       </c>
-      <c r="O193" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P193" s="14" t="s">
-        <v>15</v>
+      <c r="O193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -10192,11 +9780,11 @@
       <c r="N194">
         <v>2.168021680216802</v>
       </c>
-      <c r="O194" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P194" s="14" t="s">
-        <v>14</v>
+      <c r="O194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -10242,11 +9830,11 @@
       <c r="N195">
         <v>2.168021680216802</v>
       </c>
-      <c r="O195" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P195" s="14" t="s">
-        <v>14</v>
+      <c r="O195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -10292,11 +9880,11 @@
       <c r="N196">
         <v>2.168021680216802</v>
       </c>
-      <c r="O196" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P196" s="14" t="s">
-        <v>15</v>
+      <c r="O196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -10342,11 +9930,11 @@
       <c r="N197">
         <v>2.168021680216802</v>
       </c>
-      <c r="O197" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P197" s="14" t="s">
-        <v>15</v>
+      <c r="O197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -10392,11 +9980,11 @@
       <c r="N198">
         <v>2.168021680216802</v>
       </c>
-      <c r="O198" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P198" s="14" t="s">
-        <v>15</v>
+      <c r="O198" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -10442,11 +10030,11 @@
       <c r="N199">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O199" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P199" s="14" t="s">
-        <v>14</v>
+      <c r="O199" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -10492,11 +10080,11 @@
       <c r="N200">
         <v>2.168021680216802</v>
       </c>
-      <c r="O200" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P200" s="14" t="s">
-        <v>15</v>
+      <c r="O200" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -10542,11 +10130,11 @@
       <c r="N201">
         <v>2.168021680216802</v>
       </c>
-      <c r="O201" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P201" s="14" t="s">
-        <v>15</v>
+      <c r="O201" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -10592,11 +10180,11 @@
       <c r="N202">
         <v>2.168021680216802</v>
       </c>
-      <c r="O202" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P202" s="14" t="s">
-        <v>15</v>
+      <c r="O202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -10642,11 +10230,11 @@
       <c r="N203">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O203" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P203" s="14" t="s">
-        <v>14</v>
+      <c r="O203" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -10692,11 +10280,11 @@
       <c r="N204">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O204" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P204" s="14" t="s">
-        <v>14</v>
+      <c r="O204" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -10742,11 +10330,11 @@
       <c r="N205">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O205" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P205" s="14" t="s">
-        <v>14</v>
+      <c r="O205" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -10792,11 +10380,11 @@
       <c r="N206">
         <v>2.168021680216802</v>
       </c>
-      <c r="O206" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P206" s="14" t="s">
-        <v>14</v>
+      <c r="O206" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -10842,11 +10430,11 @@
       <c r="N207">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O207" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P207" s="14" t="s">
-        <v>14</v>
+      <c r="O207" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -10892,11 +10480,11 @@
       <c r="N208">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O208" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P208" s="14" t="s">
-        <v>14</v>
+      <c r="O208" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -10942,11 +10530,11 @@
       <c r="N209">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O209" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P209" s="14" t="s">
-        <v>14</v>
+      <c r="O209" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -10992,11 +10580,11 @@
       <c r="N210">
         <v>2.168021680216802</v>
       </c>
-      <c r="O210" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P210" s="14" t="s">
-        <v>14</v>
+      <c r="O210" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -11042,11 +10630,11 @@
       <c r="N211">
         <v>2.168021680216802</v>
       </c>
-      <c r="O211" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P211" s="14" t="s">
-        <v>14</v>
+      <c r="O211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -11092,11 +10680,11 @@
       <c r="N212">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O212" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P212" s="14" t="s">
-        <v>14</v>
+      <c r="O212" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P212" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -11142,11 +10730,11 @@
       <c r="N213">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O213" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P213" s="14" t="s">
-        <v>14</v>
+      <c r="O213" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P213" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -11192,11 +10780,11 @@
       <c r="N214">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O214" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P214" s="14" t="s">
-        <v>14</v>
+      <c r="O214" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -11242,11 +10830,11 @@
       <c r="N215">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O215" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P215" s="14" t="s">
-        <v>14</v>
+      <c r="O215" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P215" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -11292,11 +10880,11 @@
       <c r="N216">
         <v>2.168021680216802</v>
       </c>
-      <c r="O216" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P216" s="14" t="s">
-        <v>15</v>
+      <c r="O216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -11342,11 +10930,11 @@
       <c r="N217">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O217" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P217" s="14" t="s">
-        <v>15</v>
+      <c r="O217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -11392,11 +10980,11 @@
       <c r="N218">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O218" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P218" s="14" t="s">
-        <v>15</v>
+      <c r="O218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P218" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -11442,11 +11030,11 @@
       <c r="N219">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O219" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P219" s="14" t="s">
-        <v>15</v>
+      <c r="O219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P219" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -11492,11 +11080,11 @@
       <c r="N220">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O220" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P220" s="14" t="s">
-        <v>15</v>
+      <c r="O220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P220" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -11542,11 +11130,11 @@
       <c r="N221">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O221" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P221" s="14" t="s">
-        <v>15</v>
+      <c r="O221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P221" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -11592,11 +11180,11 @@
       <c r="N222">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O222" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P222" s="14" t="s">
-        <v>15</v>
+      <c r="O222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P222" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -11642,11 +11230,11 @@
       <c r="N223">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O223" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P223" s="14" t="s">
-        <v>14</v>
+      <c r="O223" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -11692,11 +11280,11 @@
       <c r="N224">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O224" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P224" s="14" t="s">
-        <v>15</v>
+      <c r="O224" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P224" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -11742,11 +11330,11 @@
       <c r="N225">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O225" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P225" s="14" t="s">
-        <v>15</v>
+      <c r="O225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P225" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -11792,11 +11380,11 @@
       <c r="N226">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O226" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P226" s="14" t="s">
-        <v>15</v>
+      <c r="O226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P226" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -11842,11 +11430,11 @@
       <c r="N227">
         <v>2.168021680216802</v>
       </c>
-      <c r="O227" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P227" s="14" t="s">
-        <v>15</v>
+      <c r="O227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P227" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -11892,11 +11480,11 @@
       <c r="N228">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O228" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P228" s="14" t="s">
-        <v>15</v>
+      <c r="O228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P228" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -11942,11 +11530,11 @@
       <c r="N229">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O229" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P229" s="14" t="s">
-        <v>15</v>
+      <c r="O229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P229" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -11992,11 +11580,11 @@
       <c r="N230">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O230" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P230" s="14" t="s">
-        <v>15</v>
+      <c r="O230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P230" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -12042,11 +11630,11 @@
       <c r="N231">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O231" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P231" s="14" t="s">
-        <v>15</v>
+      <c r="O231" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P231" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -12092,11 +11680,11 @@
       <c r="N232">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O232" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P232" s="14" t="s">
-        <v>15</v>
+      <c r="O232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -12142,11 +11730,11 @@
       <c r="N233">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O233" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P233" s="14" t="s">
-        <v>15</v>
+      <c r="O233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P233" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -12192,11 +11780,11 @@
       <c r="N234">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O234" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P234" s="14" t="s">
-        <v>15</v>
+      <c r="O234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -12242,11 +11830,11 @@
       <c r="N235">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O235" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P235" s="14" t="s">
-        <v>15</v>
+      <c r="O235" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P235" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -12292,11 +11880,11 @@
       <c r="N236">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O236" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P236" s="14" t="s">
-        <v>15</v>
+      <c r="O236" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P236" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -12342,11 +11930,11 @@
       <c r="N237">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O237" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P237" s="14" t="s">
-        <v>15</v>
+      <c r="O237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P237" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -12392,11 +11980,11 @@
       <c r="N238">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O238" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P238" s="14" t="s">
-        <v>14</v>
+      <c r="O238" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P238" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -12442,11 +12030,11 @@
       <c r="N239">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O239" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P239" s="14" t="s">
-        <v>15</v>
+      <c r="O239" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P239" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -12492,11 +12080,11 @@
       <c r="N240">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O240" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P240" s="14" t="s">
-        <v>15</v>
+      <c r="O240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P240" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -12542,11 +12130,11 @@
       <c r="N241">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O241" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P241" s="14" t="s">
-        <v>15</v>
+      <c r="O241" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P241" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -12592,11 +12180,11 @@
       <c r="N242">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O242" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P242" s="14" t="s">
-        <v>15</v>
+      <c r="O242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P242" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -12642,11 +12230,11 @@
       <c r="N243">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O243" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P243" s="14" t="s">
-        <v>15</v>
+      <c r="O243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P243" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -12692,11 +12280,11 @@
       <c r="N244">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O244" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P244" s="14" t="s">
-        <v>15</v>
+      <c r="O244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P244" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -12742,11 +12330,11 @@
       <c r="N245">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O245" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P245" s="14" t="s">
-        <v>14</v>
+      <c r="O245" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P245" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -12792,11 +12380,11 @@
       <c r="N246">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O246" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P246" s="14" t="s">
-        <v>14</v>
+      <c r="O246" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P246" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -12842,11 +12430,11 @@
       <c r="N247">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O247" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P247" s="14" t="s">
-        <v>14</v>
+      <c r="O247" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P247" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -12892,11 +12480,11 @@
       <c r="N248">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O248" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P248" s="14" t="s">
-        <v>14</v>
+      <c r="O248" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P248" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -12942,11 +12530,11 @@
       <c r="N249">
         <v>2.168021680216802</v>
       </c>
-      <c r="O249" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P249" s="14" t="s">
-        <v>15</v>
+      <c r="O249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -12992,11 +12580,11 @@
       <c r="N250">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O250" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P250" s="14" t="s">
-        <v>15</v>
+      <c r="O250" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P250" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -13042,11 +12630,11 @@
       <c r="N251">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O251" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P251" s="14" t="s">
-        <v>15</v>
+      <c r="O251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P251" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -13092,11 +12680,11 @@
       <c r="N252">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O252" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P252" s="14" t="s">
-        <v>15</v>
+      <c r="O252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P252" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -13142,11 +12730,11 @@
       <c r="N253">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O253" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P253" s="14" t="s">
-        <v>15</v>
+      <c r="O253" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P253" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -13192,11 +12780,11 @@
       <c r="N254">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O254" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P254" s="14" t="s">
-        <v>15</v>
+      <c r="O254" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P254" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -13242,11 +12830,11 @@
       <c r="N255">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O255" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P255" s="14" t="s">
-        <v>15</v>
+      <c r="O255" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P255" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -13292,11 +12880,11 @@
       <c r="N256">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O256" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P256" s="14" t="s">
-        <v>14</v>
+      <c r="O256" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -13342,11 +12930,11 @@
       <c r="N257">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O257" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P257" s="14" t="s">
-        <v>14</v>
+      <c r="O257" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P257" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -13392,11 +12980,11 @@
       <c r="N258">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O258" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P258" s="14" t="s">
-        <v>14</v>
+      <c r="O258" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -13442,11 +13030,11 @@
       <c r="N259">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O259" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P259" s="14" t="s">
-        <v>14</v>
+      <c r="O259" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P259" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -13492,11 +13080,11 @@
       <c r="N260">
         <v>2.1709633649932156</v>
       </c>
-      <c r="O260" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P260" s="14" t="s">
-        <v>14</v>
+      <c r="O260" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P260" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -13542,11 +13130,11 @@
       <c r="N261">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O261" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P261" s="14" t="s">
-        <v>15</v>
+      <c r="O261" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P261" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -13592,11 +13180,11 @@
       <c r="N262">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O262" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P262" s="14" t="s">
-        <v>15</v>
+      <c r="O262" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P262" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -13642,11 +13230,11 @@
       <c r="N263">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O263" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P263" s="14" t="s">
-        <v>15</v>
+      <c r="O263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P263" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -13692,11 +13280,11 @@
       <c r="N264">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O264" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P264" s="14" t="s">
-        <v>15</v>
+      <c r="O264" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P264" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -13742,11 +13330,11 @@
       <c r="N265">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O265" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P265" s="14" t="s">
-        <v>15</v>
+      <c r="O265" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P265" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -13792,11 +13380,11 @@
       <c r="N266">
         <v>1.3333333333333333</v>
       </c>
-      <c r="O266" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P266" s="14" t="s">
-        <v>15</v>
+      <c r="O266" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P266" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -13842,11 +13430,11 @@
       <c r="N267">
         <v>0.75</v>
       </c>
-      <c r="O267" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P267" s="14" t="s">
-        <v>14</v>
+      <c r="O267" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P267" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -13892,11 +13480,11 @@
       <c r="N268">
         <v>0.75</v>
       </c>
-      <c r="O268" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P268" s="14" t="s">
-        <v>14</v>
+      <c r="O268" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P268" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -13942,11 +13530,11 @@
       <c r="N269">
         <v>0.75</v>
       </c>
-      <c r="O269" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P269" s="14" t="s">
-        <v>14</v>
+      <c r="O269" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P269" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -13992,14 +13580,13 @@
       <c r="N270">
         <v>0.75</v>
       </c>
-      <c r="O270" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P270" s="14" t="s">
-        <v>14</v>
+      <c r="O270" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P270" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>